--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260933.724000697</v>
+        <v>2381695.880711426</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324958</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5147700.088425633</v>
+        <v>5435400.714823413</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>332.4291174559667</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>73.54668505466833</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,13 +825,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>13.38620250287161</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>7.646576123170139</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>229.3426512488454</v>
+        <v>341.6874463705291</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>177.2234976497691</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>146.6689763495171</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>106.9304451868637</v>
+        <v>59.18212589108353</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46.4771045885317</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1348,13 +1350,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>11.24748979352519</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,19 +1378,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>129.0695621948834</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170499</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1610,10 +1612,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1658,10 +1660,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>68.24657424264319</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="T16" t="n">
-        <v>82.62483121292207</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2002,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>16.05512456153178</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>144.4937753855477</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2378,7 +2380,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2858,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,13 +3009,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9514671241881</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494593</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>159.7269632351979</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3481,16 +3483,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366277</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932891</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3566,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>102.8562685532374</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>29.10461178739049</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773012</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>90.63993790644358</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131475</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3799,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>111.9183464525223</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773016</v>
       </c>
       <c r="E44" t="n">
-        <v>128.6569407157529</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791311699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.9986524434728</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.3642220164563</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>922.2621532402836</v>
+        <v>1226.179759784392</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>797.5980855216599</v>
       </c>
       <c r="E2" t="n">
         <v>461.8110981924006</v>
@@ -4328,28 +4330,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1402.826622090155</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1402.826622090155</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1402.011571541592</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.909512161307</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1382.663792501364</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>525.8069638960535</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>353.2452523792784</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>187.3672595808011</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
         <v>173.8458429112338</v>
@@ -4489,49 +4491,49 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W4" t="n">
-        <v>998.6183892485328</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="X4" t="n">
-        <v>753.2266345819453</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y4" t="n">
-        <v>525.8069638960535</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>958.9147199317615</v>
+        <v>1382.503203996562</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>944.3607311799856</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>508.4509463544301</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>74.6762015127253</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>2159.002379407681</v>
       </c>
       <c r="W5" t="n">
-        <v>1217.07884972191</v>
+        <v>1754.146924818715</v>
       </c>
       <c r="X5" t="n">
-        <v>985.4196060362078</v>
+        <v>1409.008090101009</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.1738863762653</v>
+        <v>1404.762370441066</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1089.571364023507</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.3106718651768</v>
+        <v>864.12354393779</v>
       </c>
       <c r="C7" t="n">
-        <v>299.3106718651768</v>
+        <v>691.561832421015</v>
       </c>
       <c r="D7" t="n">
-        <v>299.3106718651768</v>
+        <v>525.6838396225377</v>
       </c>
       <c r="E7" t="n">
-        <v>299.3106718651768</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>190.3345608991026</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.51060609412</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.077605347226</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>772.1220972176561</v>
+        <v>1529.692184179214</v>
       </c>
       <c r="W7" t="n">
-        <v>772.1220972176561</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>526.7303425510686</v>
+        <v>1012.274025098918</v>
       </c>
       <c r="Y7" t="n">
-        <v>299.3106718651768</v>
+        <v>864.12354393779</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>628.8817772575625</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>594.7797084813899</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>166.1980342186582</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1074.529126782698</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>655.3866633620088</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>651.1409437020662</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>778.554892512724</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="L9" t="n">
-        <v>778.554892512724</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M9" t="n">
-        <v>778.554892512724</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N9" t="n">
-        <v>778.554892512724</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.8488427225424</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>774.8488427225424</v>
+        <v>694.5306623601665</v>
       </c>
       <c r="D10" t="n">
-        <v>608.9708499240651</v>
+        <v>528.6526695616892</v>
       </c>
       <c r="E10" t="n">
-        <v>439.2128461748023</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1013.629614209975</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1013.629614209975</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1002.268513408434</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>774.8488427225424</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1481.960997376836</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1043.818524560259</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>607.9087397347039</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>607.9087397347039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>607.9087397347039</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>206.5109083579678</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035996</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035996</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035996</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.16155963792</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3503.16155963792</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3140.544609571746</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.68915498278</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2316.54669156209</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1908.260567861744</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N12" t="n">
-        <v>426.7596113382908</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O12" t="n">
-        <v>1368.962574832099</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>447.191746313981</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>277.4337425647182</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>100.7266885264744</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162089</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1633.09229092537</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1194.949818108793</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.949818108793</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1320.714971542188</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035996</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035996</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035996</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035996</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869393</v>
+        <v>4723.664187456951</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3723.228786764881</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3654.292853186454</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3291.67590312028</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2886.820448531313</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2467.677985110624</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2059.391861410277</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.493131408668</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.493131408668</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M15" t="n">
-        <v>1622.20459659609</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N15" t="n">
-        <v>1622.20459659609</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162089</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5519,7 +5521,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M17" t="n">
         <v>1463.16863798718</v>
@@ -5589,22 +5591,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5701,22 +5703,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2543.461783934675</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1233.235445292023</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>533.9380463464488</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1368.288338304627</v>
+        <v>380.3945678471333</v>
       </c>
       <c r="L20" t="n">
-        <v>2443.348304557486</v>
+        <v>1455.454534099993</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557486</v>
+        <v>2612.502369310544</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5944,16 +5946,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>934.6074576929152</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2009.667423945775</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2009.667423945775</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>3135.398407382222</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6303,25 +6305,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>449.602989562749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6539,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
         <v>2496.382403636182</v>
@@ -6643,28 +6645,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>4932.38282354235</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T31" t="n">
-        <v>4686.503377120805</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U31" t="n">
-        <v>4408.070376373911</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V31" t="n">
-        <v>4408.070376373911</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W31" t="n">
-        <v>4136.043971960203</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652942</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6898,10 +6900,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6920,64 +6922,64 @@
         <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289577</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>3895.354312623555</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7005,37 +7007,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1077.292364523333</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>904.7306530065579</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>738.8526602080806</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>569.0946564588178</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2013.948813008508</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1741.922408594799</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1496.530653928212</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1269.11098324232</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7169,55 +7171,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7242,37 +7244,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3376.277038478154</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>3203.715326961379</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>3037.837334162902</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E40" t="n">
-        <v>2868.079330413639</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>2691.372276375395</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>2525.781001401223</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2525.781001401223</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>4932.38282354235</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>4686.503377120805</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>4408.070376373911</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>4121.114868244342</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>3849.088463830633</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>3603.696709164046</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>3376.277038478154</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1732.690138994924</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1294.547666178348</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D41" t="n">
-        <v>858.6378813527922</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>858.6378813527922</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.5544025844809</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>76.1376132116209</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>910.4879051697989</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>1852.690868663607</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>1852.690868663607</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2794.893832157416</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3260.381874622451</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>3260.381874622451</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581045</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581045</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581045</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>3586.813433454084</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>3327.5911307711</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2964.974180704927</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>2560.11872611596</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>2140.976262695271</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>1732.690138994924</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>76.1376132116209</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>400.6959381778332</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.429458248211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.429458248211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.429458248211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.429458248211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.429458248211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2136293346052</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>764.2136293346052</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>764.2136293346052</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>594.4556255853424</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>417.7485715470987</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.258586696244</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.82558594935</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.87007781978</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.843673406072</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.451918739484</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0322480535924</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1481.960997376837</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1043.81852456026</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>607.9087397347048</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>477.952233961217</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>477.952233961217</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>76.5544025844809</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>76.5544025844809</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I44" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2262.917935035997</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035997</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035997</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035997</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869394</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827988</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581045</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764882</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637921</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>3503.161559637921</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3140.544609571747</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>2735.689154982781</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>2316.546691562091</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>1908.260567861745</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1066.535824598178</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>893.9741130814026</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>728.0961202829253</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>558.3381165336625</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>381.6310624954187</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212464</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2536.027227634467</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T46" t="n">
-        <v>2290.147781212922</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U46" t="n">
-        <v>2290.147781212922</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V46" t="n">
-        <v>2003.192273083353</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1731.165868669644</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1485.774114003057</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1258.354443317165</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8139,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>393.364680982922</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,16 +8297,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>65.06686390159689</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191114</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>385.2554146752024</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,13 +8619,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>34.867532687005</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>255.8000219838293</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8927,16 +8929,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>817.497647351161</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>222.4482437666393</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,10 +9169,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>436.0375818946154</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>280.943159168034</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,7 +9652,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>387.2095039972201</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>840.7541590122582</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>324.5237132641533</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>507.105909296743</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969853</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,13 +10831,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1133.488385918384</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>305.8360165328637</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452609</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452613</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
-        <v>470.1899418838734</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>118.392906878933</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113947</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>157.1692908163325</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>188.3835054135101</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="T16" t="n">
-        <v>160.7958207444072</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>227.3655273957975</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>52.42554389793629</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>102.9863699957336</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.21302026266341</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>61.36294431725513</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>58.66873794568092</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>332.9488173884407</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>52.01701577190826</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>300.7800566775348</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>23.65030257151054</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>446174.9058918224</v>
+        <v>456743.5079112185</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>446174.9058918224</v>
+        <v>458646.4079494898</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384468.0674889848</v>
+        <v>475508.9936049982</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384468.0674889848</v>
+        <v>475508.9936049982</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>475508.9936049983</v>
+        <v>475508.9936049982</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384468.0674889849</v>
+        <v>475508.9936049982</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>384468.0674889849</v>
+        <v>475508.9936049982</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>522743.6368931483</v>
+      </c>
+      <c r="C2" t="n">
         <v>522743.6368931482</v>
       </c>
-      <c r="C2" t="n">
-        <v>522743.6368931483</v>
-      </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="E2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="G2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="H2" t="n">
         <v>513686.1445339184</v>
@@ -26347,13 +26349,13 @@
         <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="O2" t="n">
         <v>513686.1445339185</v>
       </c>
-      <c r="O2" t="n">
-        <v>415335.8231724244</v>
-      </c>
       <c r="P2" t="n">
-        <v>415335.8231724245</v>
+        <v>513686.1445339185</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501624</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499827</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.808606369</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877257</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622256</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932458</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>54981.2882843579</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="F4" t="n">
-        <v>54981.2882843579</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933275</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933279</v>
@@ -26442,22 +26444,22 @@
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933278</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933272</v>
       </c>
       <c r="O4" t="n">
-        <v>54981.28828435791</v>
+        <v>68000.69828933272</v>
       </c>
       <c r="P4" t="n">
-        <v>54981.28828435791</v>
+        <v>68000.69828933269</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26524,19 @@
         <v>121298.7218497004</v>
       </c>
       <c r="C6" t="n">
-        <v>263490.0225094103</v>
+        <v>220972.7563968836</v>
       </c>
       <c r="D6" t="n">
-        <v>263490.0225094103</v>
+        <v>280366.8755287342</v>
       </c>
       <c r="E6" t="n">
-        <v>145012.6539251305</v>
+        <v>185612.0984177435</v>
       </c>
       <c r="F6" t="n">
-        <v>302489.9488472346</v>
+        <v>367967.2076387932</v>
       </c>
       <c r="G6" t="n">
-        <v>278467.3990324241</v>
+        <v>367967.2076387932</v>
       </c>
       <c r="H6" t="n">
         <v>367967.2076387931</v>
@@ -26543,25 +26545,25 @@
         <v>367967.2076387932</v>
       </c>
       <c r="J6" t="n">
-        <v>256952.7422938029</v>
+        <v>256952.742293803</v>
       </c>
       <c r="K6" t="n">
-        <v>367967.2076387933</v>
+        <v>314921.3530000207</v>
       </c>
       <c r="L6" t="n">
-        <v>367967.2076387932</v>
+        <v>358574.905912171</v>
       </c>
       <c r="M6" t="n">
-        <v>236530.9604813737</v>
+        <v>215767.0367008056</v>
       </c>
       <c r="N6" t="n">
         <v>367967.2076387932</v>
       </c>
       <c r="O6" t="n">
-        <v>302489.9488472346</v>
+        <v>367967.2076387933</v>
       </c>
       <c r="P6" t="n">
-        <v>302489.9488472347</v>
+        <v>367967.2076387933</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452613</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452613</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939317</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394841</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939317</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939317</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394841</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>97.00787993732109</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>183.0833946014849</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.6742212088985</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.2912609967515</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>185.608387537637</v>
+        <v>73.26359241595327</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,25 +27776,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>66.19715430756017</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>78.47649762951573</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>322.5065522064241</v>
+        <v>370.2548715022042</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27907,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>124.3589898130756</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.6903473263964</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.180355275876318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34859,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>393.364680982922</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>65.06686390159689</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191114</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>385.2554146752024</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>34.867532687005</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>255.8000219838293</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>817.497647351161</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>222.4482437666393</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,10 +35889,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>436.0375818946154</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>280.943159168034</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36370,7 +36372,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>387.2095039972201</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>840.7541590122582</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>324.5237132641533</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,19 +37080,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>507.105909296743</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969853</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37469,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37549,13 +37551,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1133.488385918384</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>305.8360165328637</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080414</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452609</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452613</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
-        <v>470.1899418838734</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>118.392906878933</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,16 +38022,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113947</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2381695.880711426</v>
+        <v>2381170.698342394</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916861</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>107.3077331430795</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.5506869772999</v>
+      </c>
+      <c r="E2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="E2" t="n">
-        <v>332.4291174559667</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -828,16 +828,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>128.4283991467565</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>7.646576123170139</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,7 +904,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>286.1398096286878</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>341.6874463705291</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>33.91470580449488</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.6689763495171</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2210218768698</v>
       </c>
       <c r="E8" t="n">
-        <v>59.18212589108353</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C10" t="n">
-        <v>46.4771045885317</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629697</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.20092700998597</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>54.66258501924847</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.383853062969</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1903,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430786</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>31.24391673888117</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2083,16 +2083,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948849</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2140,16 +2140,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>111.5098183264943</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
     <row r="23">
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.01098805494593</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3325,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.2146311366277</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932891</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3666,10 +3666,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>102.8562685532374</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3742,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773012</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.412621479131475</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>129.5445345985668</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3979,25 +3979,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773016</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791311699</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4036,16 +4036,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9742767430576</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1030.653802879758</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>922.2621532402836</v>
       </c>
       <c r="D2" t="n">
-        <v>797.5980855216599</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
         <v>461.8110981924006</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1057.158688984204</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1052.912969324262</v>
       </c>
     </row>
     <row r="3">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>630.8013258914481</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>458.239614374673</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>292.3616215761957</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
         <v>509.954387939391</v>
@@ -4518,22 +4518,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1451.303983658873</v>
+        <v>1567.457774376623</v>
       </c>
       <c r="W4" t="n">
-        <v>1451.303983658873</v>
+        <v>1295.431369962914</v>
       </c>
       <c r="X4" t="n">
-        <v>1443.580169393044</v>
+        <v>1050.039615296327</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>822.6199446104351</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1382.503203996562</v>
+        <v>978.0460105832981</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3607311799856</v>
+        <v>539.9035377667215</v>
       </c>
       <c r="D5" t="n">
-        <v>508.4509463544301</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>74.6762015127253</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.8491759623371</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717425</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717425</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717425</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720798</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>2159.002379407681</v>
+        <v>2232.589218737804</v>
       </c>
       <c r="W5" t="n">
-        <v>1754.146924818715</v>
+        <v>1827.733764148838</v>
       </c>
       <c r="X5" t="n">
-        <v>1409.008090101009</v>
+        <v>1408.591300728148</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.762370441066</v>
+        <v>1404.345581068206</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>76.4960597499347</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760926</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1089.571364023507</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>864.12354393779</v>
+        <v>998.156550817585</v>
       </c>
       <c r="C7" t="n">
-        <v>691.561832421015</v>
+        <v>825.5948393008099</v>
       </c>
       <c r="D7" t="n">
-        <v>525.6838396225377</v>
+        <v>659.7168465023326</v>
       </c>
       <c r="E7" t="n">
-        <v>355.9258358732749</v>
+        <v>489.9588427530699</v>
       </c>
       <c r="F7" t="n">
-        <v>355.9258358732749</v>
+        <v>313.251788714826</v>
       </c>
       <c r="G7" t="n">
-        <v>190.3345608991026</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>50.4323865894771</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055679</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308784</v>
+        <v>2221.768507432329</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179214</v>
+        <v>1934.81299930276</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765506</v>
+        <v>1662.786594889051</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098918</v>
+        <v>1417.394840222464</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.12354393779</v>
+        <v>1189.975169536572</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,19 +4807,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>694.5306623601665</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>528.6526695616892</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>358.8946658124264</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5007,7 +5007,7 @@
         <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
         <v>128.3245134312372</v>
@@ -5123,22 +5123,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5190,19 +5190,19 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
         <v>881.8088617745661</v>
@@ -5226,10 +5226,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2683.3639582443</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
         <v>2404.930957497405</v>
@@ -5266,64 +5266,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4723.664187456951</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2642.287896536276</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5506,52 +5506,52 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5585,28 +5585,28 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
         <v>1107.588885023173</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5703,22 +5703,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>380.3945678471333</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1455.454534099993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2612.502369310544</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>303.5569696238763</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6539,10 +6539,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6709,16 +6709,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>3137.402081918264</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289577</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
         <v>2011.671098481817</v>
@@ -6949,37 +6949,37 @@
         <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7007,10 +7007,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1476.384721759858</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7165,61 +7165,61 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3569.079287993935</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993935</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,64 +7399,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7493,19 +7493,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707797</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2150.393015473603</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7636,64 +7636,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7800,16 +7800,16 @@
         <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7833,10 +7833,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2594.704009018975</v>
+        <v>2562.150454693625</v>
       </c>
       <c r="T46" t="n">
-        <v>2594.704009018975</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="U46" t="n">
         <v>2316.271008272081</v>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>393.364680982922</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611155</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,13 +8297,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>65.06686390159689</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191114</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8531,13 +8531,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,13 +8771,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8929,25 +8929,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.4482437666393</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>280.943159168034</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969853</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,13 +10831,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1133.488385918384</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11305,10 +11305,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>122.4480280049973</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192615</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>52.42554389793629</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.9308428424051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>61.36294431725513</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>113.8761173587625</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>34.67467827192567</v>
+        <v>2.446659489829187</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456743.5079112185</v>
+        <v>456743.5079112184</v>
       </c>
     </row>
     <row r="4">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522743.6368931483</v>
+        <v>522743.6368931482</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
         <v>522743.6368931484</v>
@@ -26331,7 +26331,7 @@
         <v>513686.1445339185</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
@@ -26340,7 +26340,7 @@
         <v>513686.1445339185</v>
       </c>
       <c r="K2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
         <v>513686.1445339185</v>
@@ -26349,7 +26349,7 @@
         <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
         <v>513686.1445339185</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501624</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.5955499827</v>
+        <v>11527.59554998293</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877257</v>
+        <v>53045.85463877238</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622256</v>
+        <v>9392.301726622443</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>163226.8987932458</v>
+        <v>163226.8987932459</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
+        <v>68000.69828933274</v>
+      </c>
+      <c r="F4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="G4" t="n">
+        <v>68000.69828933271</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="I4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="F4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="G4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68000.69828933275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
@@ -26450,16 +26450,16 @@
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933278</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933272</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933272</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933269</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>121298.7218497004</v>
       </c>
       <c r="C6" t="n">
-        <v>220972.7563968836</v>
+        <v>220972.756396884</v>
       </c>
       <c r="D6" t="n">
-        <v>280366.8755287342</v>
+        <v>280366.8755287339</v>
       </c>
       <c r="E6" t="n">
-        <v>185612.0984177435</v>
+        <v>185588.8740783608</v>
       </c>
       <c r="F6" t="n">
-        <v>367967.2076387932</v>
+        <v>367943.9832994105</v>
       </c>
       <c r="G6" t="n">
-        <v>367967.2076387932</v>
+        <v>367943.9832994106</v>
       </c>
       <c r="H6" t="n">
-        <v>367967.2076387931</v>
+        <v>367943.9832994105</v>
       </c>
       <c r="I6" t="n">
-        <v>367967.2076387932</v>
+        <v>367943.9832994106</v>
       </c>
       <c r="J6" t="n">
-        <v>256952.742293803</v>
+        <v>256929.5179544204</v>
       </c>
       <c r="K6" t="n">
-        <v>314921.3530000207</v>
+        <v>314898.1286606382</v>
       </c>
       <c r="L6" t="n">
-        <v>358574.905912171</v>
+        <v>358551.6815727881</v>
       </c>
       <c r="M6" t="n">
-        <v>215767.0367008056</v>
+        <v>215743.8123614229</v>
       </c>
       <c r="N6" t="n">
-        <v>367967.2076387932</v>
+        <v>367943.9832994105</v>
       </c>
       <c r="O6" t="n">
-        <v>367967.2076387933</v>
+        <v>367943.9832994105</v>
       </c>
       <c r="P6" t="n">
-        <v>367967.2076387933</v>
+        <v>367943.9832994105</v>
       </c>
     </row>
   </sheetData>
@@ -26792,19 +26792,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939317</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939317</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939317</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>326.4533149453314</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>97.00787993732109</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27444,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>155.6575539015173</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.2912609967515</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>72.85097093682396</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>73.26359241595327</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>130.0206564199357</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>78.47649762951573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="E8" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C10" t="n">
-        <v>124.3589898130756</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.697685318346741e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28626,13 +28626,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.376465365191665e-12</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,16 +28800,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="21">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>393.364680982922</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611155</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,13 +35017,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>65.06686390159689</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191114</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35251,13 +35251,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.4482437666393</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>280.943159168034</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37317,19 +37317,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969853</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1133.488385918384</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
